--- a/Code/Results/Cases/Case_3_106/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_106/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.026092448489047</v>
+        <v>1.051956481319977</v>
       </c>
       <c r="D2">
-        <v>1.042113532873678</v>
+        <v>1.056948362040533</v>
       </c>
       <c r="E2">
-        <v>1.038966824467425</v>
+        <v>1.058866272110174</v>
       </c>
       <c r="F2">
-        <v>1.049900149936783</v>
+        <v>1.069642343597047</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.055257078768166</v>
+        <v>1.047788579277229</v>
       </c>
       <c r="J2">
-        <v>1.04751979409428</v>
+        <v>1.056981621026416</v>
       </c>
       <c r="K2">
-        <v>1.053015755195527</v>
+        <v>1.059684673658182</v>
       </c>
       <c r="L2">
-        <v>1.049908724509256</v>
+        <v>1.061597336675522</v>
       </c>
       <c r="M2">
-        <v>1.060705461385837</v>
+        <v>1.072344305255365</v>
       </c>
       <c r="N2">
-        <v>1.019340607999193</v>
+        <v>1.02277518295572</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.030480885205214</v>
+        <v>1.052893812425761</v>
       </c>
       <c r="D3">
-        <v>1.04538526770516</v>
+        <v>1.057671159107791</v>
       </c>
       <c r="E3">
-        <v>1.042567786773101</v>
+        <v>1.05968258229249</v>
       </c>
       <c r="F3">
-        <v>1.053668065557039</v>
+        <v>1.070497694383154</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.056612710271204</v>
+        <v>1.048031740121935</v>
       </c>
       <c r="J3">
-        <v>1.050173745121729</v>
+        <v>1.057569302264864</v>
       </c>
       <c r="K3">
-        <v>1.055468589860427</v>
+        <v>1.060221441744164</v>
       </c>
       <c r="L3">
-        <v>1.052683503604633</v>
+        <v>1.062227758498216</v>
       </c>
       <c r="M3">
-        <v>1.063657390161842</v>
+        <v>1.073015768316016</v>
       </c>
       <c r="N3">
-        <v>1.020248144606548</v>
+        <v>1.022973954822337</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.033266435953415</v>
+        <v>1.053500950112082</v>
       </c>
       <c r="D4">
-        <v>1.047465306632823</v>
+        <v>1.058139404622995</v>
       </c>
       <c r="E4">
-        <v>1.044859038645502</v>
+        <v>1.060211682419284</v>
       </c>
       <c r="F4">
-        <v>1.056065480462451</v>
+        <v>1.071052095394256</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.057465396611857</v>
+        <v>1.04818824511438</v>
       </c>
       <c r="J4">
-        <v>1.051855834277288</v>
+        <v>1.057949541674133</v>
       </c>
       <c r="K4">
-        <v>1.057022727368664</v>
+        <v>1.060568640864415</v>
       </c>
       <c r="L4">
-        <v>1.054444600122044</v>
+        <v>1.062635921745681</v>
       </c>
       <c r="M4">
-        <v>1.065531247677481</v>
+        <v>1.073450533347499</v>
       </c>
       <c r="N4">
-        <v>1.020823043329647</v>
+        <v>1.023102485099783</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.03442497275528</v>
+        <v>1.053756338394634</v>
       </c>
       <c r="D5">
-        <v>1.048331163462134</v>
+        <v>1.058336384569341</v>
       </c>
       <c r="E5">
-        <v>1.045813283506126</v>
+        <v>1.060434328280976</v>
       </c>
       <c r="F5">
-        <v>1.057063922404228</v>
+        <v>1.071285387009342</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.057818133423809</v>
+        <v>1.048253838957543</v>
       </c>
       <c r="J5">
-        <v>1.052554799440168</v>
+        <v>1.058109386086177</v>
       </c>
       <c r="K5">
-        <v>1.05766840075679</v>
+        <v>1.060714572137483</v>
       </c>
       <c r="L5">
-        <v>1.055176976711327</v>
+        <v>1.062807569340572</v>
       </c>
       <c r="M5">
-        <v>1.066310593785051</v>
+        <v>1.073633375084245</v>
       </c>
       <c r="N5">
-        <v>1.021061856147579</v>
+        <v>1.023156497602481</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.0346187749017</v>
+        <v>1.053799227829905</v>
       </c>
       <c r="D6">
-        <v>1.048476048297179</v>
+        <v>1.058369465920236</v>
       </c>
       <c r="E6">
-        <v>1.045972986117371</v>
+        <v>1.060471723896509</v>
       </c>
       <c r="F6">
-        <v>1.057231020829169</v>
+        <v>1.071324570634623</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05787702706236</v>
+        <v>1.048264840655738</v>
       </c>
       <c r="J6">
-        <v>1.052671685579032</v>
+        <v>1.058136224150344</v>
       </c>
       <c r="K6">
-        <v>1.057776367569243</v>
+        <v>1.060739072775539</v>
       </c>
       <c r="L6">
-        <v>1.05529948430306</v>
+        <v>1.062836392960756</v>
       </c>
       <c r="M6">
-        <v>1.066440962576367</v>
+        <v>1.073664078877483</v>
       </c>
       <c r="N6">
-        <v>1.021101787536865</v>
+        <v>1.023165565257827</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.033281964969356</v>
+        <v>1.053504362044411</v>
       </c>
       <c r="D7">
-        <v>1.047476909670424</v>
+        <v>1.058142036171634</v>
       </c>
       <c r="E7">
-        <v>1.044871824284883</v>
+        <v>1.060214656592491</v>
       </c>
       <c r="F7">
-        <v>1.056078858353161</v>
+        <v>1.071055211780244</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.057470132251975</v>
+        <v>1.048189122372538</v>
       </c>
       <c r="J7">
-        <v>1.051865205734664</v>
+        <v>1.057951677556771</v>
       </c>
       <c r="K7">
-        <v>1.057031384808264</v>
+        <v>1.060570590929392</v>
       </c>
       <c r="L7">
-        <v>1.054454417251937</v>
+        <v>1.062638215091693</v>
       </c>
       <c r="M7">
-        <v>1.065541694111231</v>
+        <v>1.073452976228068</v>
       </c>
       <c r="N7">
-        <v>1.020826245550977</v>
+        <v>1.023103206903039</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.027587002521093</v>
+        <v>1.052273127254112</v>
       </c>
       <c r="D8">
-        <v>1.043227053476732</v>
+        <v>1.057192520410372</v>
       </c>
       <c r="E8">
-        <v>1.040192003978355</v>
+        <v>1.059141962135224</v>
       </c>
       <c r="F8">
-        <v>1.051182146709207</v>
+        <v>1.069931219455444</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.055720374878812</v>
+        <v>1.04787092940871</v>
       </c>
       <c r="J8">
-        <v>1.048424144909743</v>
+        <v>1.057180236106987</v>
       </c>
       <c r="K8">
-        <v>1.053851670881701</v>
+        <v>1.059866102293019</v>
       </c>
       <c r="L8">
-        <v>1.050853738911999</v>
+        <v>1.061810340612796</v>
       </c>
       <c r="M8">
-        <v>1.061710738043244</v>
+        <v>1.072571169814929</v>
       </c>
       <c r="N8">
-        <v>1.019649917784385</v>
+        <v>1.022842376868331</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.01711717111382</v>
+        <v>1.050108352019812</v>
       </c>
       <c r="D9">
-        <v>1.035442458645302</v>
+        <v>1.055523613275838</v>
       </c>
       <c r="E9">
-        <v>1.031634426664697</v>
+        <v>1.057258645614319</v>
       </c>
       <c r="F9">
-        <v>1.042227466158283</v>
+        <v>1.067957811617446</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.052443188067586</v>
+        <v>1.047303855602862</v>
       </c>
       <c r="J9">
-        <v>1.042079627720657</v>
+        <v>1.055820680950554</v>
       </c>
       <c r="K9">
-        <v>1.047985536260235</v>
+        <v>1.058623790765569</v>
       </c>
       <c r="L9">
-        <v>1.044234291453522</v>
+        <v>1.06035339955913</v>
       </c>
       <c r="M9">
-        <v>1.054670667435285</v>
+        <v>1.071019545937278</v>
       </c>
       <c r="N9">
-        <v>1.017478834522812</v>
+        <v>1.022382104219704</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.009814683987205</v>
+        <v>1.048668481993949</v>
       </c>
       <c r="D10">
-        <v>1.030035414018616</v>
+        <v>1.054413964680875</v>
       </c>
       <c r="E10">
-        <v>1.025699692414153</v>
+        <v>1.056007840004582</v>
       </c>
       <c r="F10">
-        <v>1.036017068452764</v>
+        <v>1.066647152768493</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.050118758944754</v>
+        <v>1.046921556581194</v>
       </c>
       <c r="J10">
-        <v>1.037644238605712</v>
+        <v>1.054914259495772</v>
       </c>
       <c r="K10">
-        <v>1.043882749729134</v>
+        <v>1.057795037163016</v>
       </c>
       <c r="L10">
-        <v>1.039619933193656</v>
+        <v>1.05938344367095</v>
       </c>
       <c r="M10">
-        <v>1.049765111442388</v>
+        <v>1.06998671133287</v>
       </c>
       <c r="N10">
-        <v>1.015959845192451</v>
+        <v>1.022074841488828</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.006568793742862</v>
+        <v>1.048045803686148</v>
       </c>
       <c r="D11">
-        <v>1.02763814695886</v>
+        <v>1.053934194947113</v>
       </c>
       <c r="E11">
-        <v>1.023070503347058</v>
+        <v>1.055467371091968</v>
       </c>
       <c r="F11">
-        <v>1.033265708170308</v>
+        <v>1.06608081694957</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.049076906092316</v>
+        <v>1.046755016790428</v>
       </c>
       <c r="J11">
-        <v>1.035670833657933</v>
+        <v>1.054521770931791</v>
       </c>
       <c r="K11">
-        <v>1.042057014901701</v>
+        <v>1.057436062386422</v>
       </c>
       <c r="L11">
-        <v>1.037570075178759</v>
+        <v>1.058963775056008</v>
       </c>
       <c r="M11">
-        <v>1.04758641438765</v>
+        <v>1.069539874573744</v>
       </c>
       <c r="N11">
-        <v>1.01528379061097</v>
+        <v>1.021941700788583</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.00534985596992</v>
+        <v>1.04781463387169</v>
       </c>
       <c r="D12">
-        <v>1.026738882288582</v>
+        <v>1.053756096132556</v>
       </c>
       <c r="E12">
-        <v>1.022084532415728</v>
+        <v>1.055266789458243</v>
       </c>
       <c r="F12">
-        <v>1.032233916302149</v>
+        <v>1.065870634775459</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.048684399264602</v>
+        <v>1.046693006604673</v>
       </c>
       <c r="J12">
-        <v>1.034929513457363</v>
+        <v>1.054375984006474</v>
       </c>
       <c r="K12">
-        <v>1.041371131632957</v>
+        <v>1.057302706417481</v>
       </c>
       <c r="L12">
-        <v>1.036800515444145</v>
+        <v>1.058807942071501</v>
       </c>
       <c r="M12">
-        <v>1.046768568018059</v>
+        <v>1.069373959068503</v>
       </c>
       <c r="N12">
-        <v>1.015029799256958</v>
+        <v>1.021892232749897</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.005611933979193</v>
+        <v>1.047864215103246</v>
       </c>
       <c r="D13">
-        <v>1.026932183155142</v>
+        <v>1.053794293974439</v>
       </c>
       <c r="E13">
-        <v>1.022296458168542</v>
+        <v>1.055309807064248</v>
       </c>
       <c r="F13">
-        <v>1.032455691085568</v>
+        <v>1.065915711385696</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.048768846352807</v>
+        <v>1.046706314773047</v>
       </c>
       <c r="J13">
-        <v>1.035088911380026</v>
+        <v>1.054407255742546</v>
       </c>
       <c r="K13">
-        <v>1.041518611017835</v>
+        <v>1.05733131246557</v>
       </c>
       <c r="L13">
-        <v>1.036965963631624</v>
+        <v>1.058841366464805</v>
       </c>
       <c r="M13">
-        <v>1.046944393600235</v>
+        <v>1.069409545790509</v>
       </c>
       <c r="N13">
-        <v>1.015084413388731</v>
+        <v>1.021902844422718</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.006468310691093</v>
+        <v>1.048026692649276</v>
       </c>
       <c r="D14">
-        <v>1.027563995657205</v>
+        <v>1.053919471010528</v>
       </c>
       <c r="E14">
-        <v>1.022989196574675</v>
+        <v>1.055450787421692</v>
       </c>
       <c r="F14">
-        <v>1.033180622939285</v>
+        <v>1.066063439540546</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.049044575110995</v>
+        <v>1.046749894063316</v>
       </c>
       <c r="J14">
-        <v>1.035609727633604</v>
+        <v>1.054509720116217</v>
       </c>
       <c r="K14">
-        <v>1.042000479140005</v>
+        <v>1.057425039475687</v>
       </c>
       <c r="L14">
-        <v>1.037506631618445</v>
+        <v>1.058950892812968</v>
       </c>
       <c r="M14">
-        <v>1.047518988314915</v>
+        <v>1.069526158723431</v>
       </c>
       <c r="N14">
-        <v>1.015262854979322</v>
+        <v>1.021937612020993</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.006994173516699</v>
+        <v>1.048126816449177</v>
       </c>
       <c r="D15">
-        <v>1.02795209593319</v>
+        <v>1.053996611206965</v>
       </c>
       <c r="E15">
-        <v>1.02341475969965</v>
+        <v>1.055537672989512</v>
       </c>
       <c r="F15">
-        <v>1.033625962461108</v>
+        <v>1.066154483655837</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.049213723419267</v>
+        <v>1.046776724858631</v>
       </c>
       <c r="J15">
-        <v>1.035929507152233</v>
+        <v>1.054572851938441</v>
       </c>
       <c r="K15">
-        <v>1.04229634019136</v>
+        <v>1.05748278559366</v>
       </c>
       <c r="L15">
-        <v>1.037838663520475</v>
+        <v>1.059018382356402</v>
       </c>
       <c r="M15">
-        <v>1.047871866075585</v>
+        <v>1.069598015733253</v>
       </c>
       <c r="N15">
-        <v>1.015372414045401</v>
+        <v>1.021959031690004</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.010028279908008</v>
+        <v>1.048709823953316</v>
       </c>
       <c r="D16">
-        <v>1.03019329949479</v>
+        <v>1.054445820622854</v>
       </c>
       <c r="E16">
-        <v>1.025872893774612</v>
+        <v>1.056043733261761</v>
       </c>
       <c r="F16">
-        <v>1.03619831714281</v>
+        <v>1.066684763785845</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.050187141188234</v>
+        <v>1.046932588224504</v>
       </c>
       <c r="J16">
-        <v>1.037774062467311</v>
+        <v>1.054940307720362</v>
       </c>
       <c r="K16">
-        <v>1.044002853247287</v>
+        <v>1.057818858725484</v>
       </c>
       <c r="L16">
-        <v>1.039754853106243</v>
+        <v>1.059411302725916</v>
       </c>
       <c r="M16">
-        <v>1.049908522627165</v>
+        <v>1.070016374695413</v>
       </c>
       <c r="N16">
-        <v>1.016004316453852</v>
+        <v>1.02208367565882</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.011908582303078</v>
+        <v>1.049075742829234</v>
       </c>
       <c r="D17">
-        <v>1.031583883165925</v>
+        <v>1.054727790450346</v>
       </c>
       <c r="E17">
-        <v>1.027398603355561</v>
+        <v>1.056361477341674</v>
       </c>
       <c r="F17">
-        <v>1.037794909408461</v>
+        <v>1.067017713767773</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.050788133709633</v>
+        <v>1.047030089421687</v>
       </c>
       <c r="J17">
-        <v>1.038916699812521</v>
+        <v>1.055170803252086</v>
       </c>
       <c r="K17">
-        <v>1.045059903248987</v>
+        <v>1.058029637456361</v>
       </c>
       <c r="L17">
-        <v>1.040942704953889</v>
+        <v>1.059657860168731</v>
       </c>
       <c r="M17">
-        <v>1.051171192548367</v>
+        <v>1.070278904903611</v>
       </c>
       <c r="N17">
-        <v>1.01639570313767</v>
+        <v>1.022161836705737</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.01299728660209</v>
+        <v>1.04928925373523</v>
       </c>
       <c r="D18">
-        <v>1.032389614193145</v>
+        <v>1.05489232760549</v>
       </c>
       <c r="E18">
-        <v>1.028282823379596</v>
+        <v>1.056546921798131</v>
       </c>
       <c r="F18">
-        <v>1.038720204620607</v>
+        <v>1.067212032383023</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.051135285219891</v>
+        <v>1.047086863520616</v>
       </c>
       <c r="J18">
-        <v>1.039578107524088</v>
+        <v>1.055305247119108</v>
       </c>
       <c r="K18">
-        <v>1.045671738940379</v>
+        <v>1.058152569566924</v>
       </c>
       <c r="L18">
-        <v>1.041630585876131</v>
+        <v>1.059801704583598</v>
       </c>
       <c r="M18">
-        <v>1.051902449602153</v>
+        <v>1.070432071623879</v>
       </c>
       <c r="N18">
-        <v>1.016622233176757</v>
+        <v>1.022207417630575</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.013367161814029</v>
+        <v>1.049362068395422</v>
       </c>
       <c r="D19">
-        <v>1.032663448130063</v>
+        <v>1.054948442167421</v>
       </c>
       <c r="E19">
-        <v>1.028583365778075</v>
+        <v>1.056610172125973</v>
       </c>
       <c r="F19">
-        <v>1.039034707458365</v>
+        <v>1.067278309383777</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.051253084660521</v>
+        <v>1.047106205600526</v>
       </c>
       <c r="J19">
-        <v>1.039802780771162</v>
+        <v>1.055351088922487</v>
       </c>
       <c r="K19">
-        <v>1.045879567625848</v>
+        <v>1.058194484245311</v>
       </c>
       <c r="L19">
-        <v>1.041864302770835</v>
+        <v>1.059850757138962</v>
       </c>
       <c r="M19">
-        <v>1.052150912366022</v>
+        <v>1.070484303801418</v>
       </c>
       <c r="N19">
-        <v>1.016699179251282</v>
+        <v>1.022222957992137</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.011707680410013</v>
+        <v>1.049036475263333</v>
       </c>
       <c r="D20">
-        <v>1.031435245272381</v>
+        <v>1.054697530615994</v>
       </c>
       <c r="E20">
-        <v>1.027235501937921</v>
+        <v>1.056327375049668</v>
       </c>
       <c r="F20">
-        <v>1.037624230959994</v>
+        <v>1.066981979527957</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.050724005726948</v>
+        <v>1.047019638463641</v>
       </c>
       <c r="J20">
-        <v>1.038794632991042</v>
+        <v>1.055146073283493</v>
       </c>
       <c r="K20">
-        <v>1.044946982715291</v>
+        <v>1.058007024080606</v>
       </c>
       <c r="L20">
-        <v>1.040815776650485</v>
+        <v>1.0596314036079</v>
       </c>
       <c r="M20">
-        <v>1.051036264399971</v>
+        <v>1.07025073402982</v>
       </c>
       <c r="N20">
-        <v>1.016353893868243</v>
+        <v>1.0221534517022</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.006216501001554</v>
+        <v>1.047978843721812</v>
       </c>
       <c r="D21">
-        <v>1.027378189261121</v>
+        <v>1.05388260647132</v>
       </c>
       <c r="E21">
-        <v>1.022785464855241</v>
+        <v>1.05540926744333</v>
       </c>
       <c r="F21">
-        <v>1.032967423389714</v>
+        <v>1.066019932294156</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.048963533843673</v>
+        <v>1.04673706518132</v>
       </c>
       <c r="J21">
-        <v>1.03545659270195</v>
+        <v>1.054479546880881</v>
       </c>
       <c r="K21">
-        <v>1.041858796983575</v>
+        <v>1.057397439660733</v>
       </c>
       <c r="L21">
-        <v>1.037347646451417</v>
+        <v>1.058918638625819</v>
       </c>
       <c r="M21">
-        <v>1.047350024586804</v>
+        <v>1.069491817466089</v>
       </c>
       <c r="N21">
-        <v>1.015210388749133</v>
+        <v>1.021927374203143</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.002686840190524</v>
+        <v>1.047314567346249</v>
       </c>
       <c r="D22">
-        <v>1.024776150286831</v>
+        <v>1.05337086287279</v>
       </c>
       <c r="E22">
-        <v>1.019933078129494</v>
+        <v>1.054833016060431</v>
       </c>
       <c r="F22">
-        <v>1.029982469340857</v>
+        <v>1.065416098219452</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.04782462911645</v>
+        <v>1.046558533219699</v>
       </c>
       <c r="J22">
-        <v>1.033309556304544</v>
+        <v>1.054060480477318</v>
       </c>
       <c r="K22">
-        <v>1.039872262898167</v>
+        <v>1.05701407336862</v>
       </c>
       <c r="L22">
-        <v>1.035119735925764</v>
+        <v>1.058470788508363</v>
       </c>
       <c r="M22">
-        <v>1.044982482409367</v>
+        <v>1.069015001782791</v>
       </c>
       <c r="N22">
-        <v>1.014474724092819</v>
+        <v>1.021785151530688</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.004565527372806</v>
+        <v>1.047666646202252</v>
       </c>
       <c r="D23">
-        <v>1.026160535206521</v>
+        <v>1.053642087458144</v>
       </c>
       <c r="E23">
-        <v>1.021450502375693</v>
+        <v>1.055138402568327</v>
       </c>
       <c r="F23">
-        <v>1.031570419685581</v>
+        <v>1.065736102647467</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04843149130906</v>
+        <v>1.046653258358549</v>
       </c>
       <c r="J23">
-        <v>1.034452446693362</v>
+        <v>1.054282634640241</v>
       </c>
       <c r="K23">
-        <v>1.040929731769675</v>
+        <v>1.057217311852696</v>
       </c>
       <c r="L23">
-        <v>1.036305411367671</v>
+        <v>1.058708174091633</v>
       </c>
       <c r="M23">
-        <v>1.046242421934864</v>
+        <v>1.069267737616938</v>
       </c>
       <c r="N23">
-        <v>1.014866339359049</v>
+        <v>1.021860553775557</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.011798484138366</v>
+        <v>1.04905421834949</v>
       </c>
       <c r="D24">
-        <v>1.031502424913439</v>
+        <v>1.054711203519833</v>
       </c>
       <c r="E24">
-        <v>1.027309218032264</v>
+        <v>1.056342784068709</v>
       </c>
       <c r="F24">
-        <v>1.037701371619815</v>
+        <v>1.066998125939104</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.05075299288573</v>
+        <v>1.047024361100576</v>
       </c>
       <c r="J24">
-        <v>1.038849805384764</v>
+        <v>1.055157247692786</v>
       </c>
       <c r="K24">
-        <v>1.044998021217522</v>
+        <v>1.058017242127562</v>
       </c>
       <c r="L24">
-        <v>1.040873145428717</v>
+        <v>1.059643358091338</v>
       </c>
       <c r="M24">
-        <v>1.051097248778388</v>
+        <v>1.070263463120014</v>
       </c>
       <c r="N24">
-        <v>1.016372791105083</v>
+        <v>1.022157240552512</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.019878391495072</v>
+        <v>1.050667419744727</v>
       </c>
       <c r="D25">
-        <v>1.03749185010103</v>
+        <v>1.055954551417772</v>
       </c>
       <c r="E25">
-        <v>1.033885674279716</v>
+        <v>1.05774469973348</v>
       </c>
       <c r="F25">
-        <v>1.04458323165852</v>
+        <v>1.06846712023704</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.053314317526196</v>
+        <v>1.04745120961271</v>
       </c>
       <c r="J25">
-        <v>1.043754800558854</v>
+        <v>1.056172172547296</v>
       </c>
       <c r="K25">
-        <v>1.049534753697976</v>
+        <v>1.058945059252454</v>
       </c>
       <c r="L25">
-        <v>1.04597978451776</v>
+        <v>1.060729823342228</v>
       </c>
       <c r="M25">
-        <v>1.056526740875694</v>
+        <v>1.071420405109629</v>
       </c>
       <c r="N25">
-        <v>1.01805230472094</v>
+        <v>1.02250117075421</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_106/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_106/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.051956481319977</v>
+        <v>1.026092448489047</v>
       </c>
       <c r="D2">
-        <v>1.056948362040533</v>
+        <v>1.042113532873678</v>
       </c>
       <c r="E2">
-        <v>1.058866272110174</v>
+        <v>1.038966824467425</v>
       </c>
       <c r="F2">
-        <v>1.069642343597047</v>
+        <v>1.049900149936783</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047788579277229</v>
+        <v>1.055257078768166</v>
       </c>
       <c r="J2">
-        <v>1.056981621026416</v>
+        <v>1.047519794094279</v>
       </c>
       <c r="K2">
-        <v>1.059684673658182</v>
+        <v>1.053015755195527</v>
       </c>
       <c r="L2">
-        <v>1.061597336675522</v>
+        <v>1.049908724509256</v>
       </c>
       <c r="M2">
-        <v>1.072344305255365</v>
+        <v>1.060705461385838</v>
       </c>
       <c r="N2">
-        <v>1.02277518295572</v>
+        <v>1.019340607999193</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.052893812425761</v>
+        <v>1.030480885205215</v>
       </c>
       <c r="D3">
-        <v>1.057671159107791</v>
+        <v>1.045385267705161</v>
       </c>
       <c r="E3">
-        <v>1.05968258229249</v>
+        <v>1.042567786773102</v>
       </c>
       <c r="F3">
-        <v>1.070497694383154</v>
+        <v>1.053668065557041</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048031740121935</v>
+        <v>1.056612710271204</v>
       </c>
       <c r="J3">
-        <v>1.057569302264864</v>
+        <v>1.05017374512173</v>
       </c>
       <c r="K3">
-        <v>1.060221441744164</v>
+        <v>1.055468589860427</v>
       </c>
       <c r="L3">
-        <v>1.062227758498216</v>
+        <v>1.052683503604634</v>
       </c>
       <c r="M3">
-        <v>1.073015768316016</v>
+        <v>1.063657390161843</v>
       </c>
       <c r="N3">
-        <v>1.022973954822337</v>
+        <v>1.020248144606548</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.053500950112082</v>
+        <v>1.033266435953415</v>
       </c>
       <c r="D4">
-        <v>1.058139404622995</v>
+        <v>1.047465306632824</v>
       </c>
       <c r="E4">
-        <v>1.060211682419284</v>
+        <v>1.044859038645503</v>
       </c>
       <c r="F4">
-        <v>1.071052095394256</v>
+        <v>1.056065480462451</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04818824511438</v>
+        <v>1.057465396611857</v>
       </c>
       <c r="J4">
-        <v>1.057949541674133</v>
+        <v>1.051855834277288</v>
       </c>
       <c r="K4">
-        <v>1.060568640864415</v>
+        <v>1.057022727368665</v>
       </c>
       <c r="L4">
-        <v>1.062635921745681</v>
+        <v>1.054444600122044</v>
       </c>
       <c r="M4">
-        <v>1.073450533347499</v>
+        <v>1.065531247677481</v>
       </c>
       <c r="N4">
-        <v>1.023102485099783</v>
+        <v>1.020823043329647</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.053756338394634</v>
+        <v>1.03442497275528</v>
       </c>
       <c r="D5">
-        <v>1.058336384569341</v>
+        <v>1.048331163462134</v>
       </c>
       <c r="E5">
-        <v>1.060434328280976</v>
+        <v>1.045813283506125</v>
       </c>
       <c r="F5">
-        <v>1.071285387009342</v>
+        <v>1.057063922404228</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048253838957543</v>
+        <v>1.057818133423809</v>
       </c>
       <c r="J5">
-        <v>1.058109386086177</v>
+        <v>1.052554799440168</v>
       </c>
       <c r="K5">
-        <v>1.060714572137483</v>
+        <v>1.05766840075679</v>
       </c>
       <c r="L5">
-        <v>1.062807569340572</v>
+        <v>1.055176976711326</v>
       </c>
       <c r="M5">
-        <v>1.073633375084245</v>
+        <v>1.066310593785051</v>
       </c>
       <c r="N5">
-        <v>1.023156497602481</v>
+        <v>1.021061856147579</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.053799227829905</v>
+        <v>1.0346187749017</v>
       </c>
       <c r="D6">
-        <v>1.058369465920236</v>
+        <v>1.04847604829718</v>
       </c>
       <c r="E6">
-        <v>1.060471723896509</v>
+        <v>1.045972986117372</v>
       </c>
       <c r="F6">
-        <v>1.071324570634623</v>
+        <v>1.05723102082917</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048264840655738</v>
+        <v>1.05787702706236</v>
       </c>
       <c r="J6">
-        <v>1.058136224150344</v>
+        <v>1.052671685579033</v>
       </c>
       <c r="K6">
-        <v>1.060739072775539</v>
+        <v>1.057776367569243</v>
       </c>
       <c r="L6">
-        <v>1.062836392960756</v>
+        <v>1.055299484303061</v>
       </c>
       <c r="M6">
-        <v>1.073664078877483</v>
+        <v>1.066440962576368</v>
       </c>
       <c r="N6">
-        <v>1.023165565257827</v>
+        <v>1.021101787536865</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.053504362044411</v>
+        <v>1.033281964969357</v>
       </c>
       <c r="D7">
-        <v>1.058142036171634</v>
+        <v>1.047476909670425</v>
       </c>
       <c r="E7">
-        <v>1.060214656592491</v>
+        <v>1.044871824284883</v>
       </c>
       <c r="F7">
-        <v>1.071055211780244</v>
+        <v>1.056078858353162</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048189122372538</v>
+        <v>1.057470132251976</v>
       </c>
       <c r="J7">
-        <v>1.057951677556771</v>
+        <v>1.051865205734665</v>
       </c>
       <c r="K7">
-        <v>1.060570590929392</v>
+        <v>1.057031384808265</v>
       </c>
       <c r="L7">
-        <v>1.062638215091693</v>
+        <v>1.054454417251938</v>
       </c>
       <c r="M7">
-        <v>1.073452976228068</v>
+        <v>1.065541694111232</v>
       </c>
       <c r="N7">
-        <v>1.023103206903039</v>
+        <v>1.020826245550977</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.052273127254112</v>
+        <v>1.027587002521094</v>
       </c>
       <c r="D8">
-        <v>1.057192520410372</v>
+        <v>1.043227053476733</v>
       </c>
       <c r="E8">
-        <v>1.059141962135224</v>
+        <v>1.040192003978356</v>
       </c>
       <c r="F8">
-        <v>1.069931219455444</v>
+        <v>1.051182146709208</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04787092940871</v>
+        <v>1.055720374878812</v>
       </c>
       <c r="J8">
-        <v>1.057180236106987</v>
+        <v>1.048424144909743</v>
       </c>
       <c r="K8">
-        <v>1.059866102293019</v>
+        <v>1.053851670881701</v>
       </c>
       <c r="L8">
-        <v>1.061810340612796</v>
+        <v>1.050853738912</v>
       </c>
       <c r="M8">
-        <v>1.072571169814929</v>
+        <v>1.061710738043246</v>
       </c>
       <c r="N8">
-        <v>1.022842376868331</v>
+        <v>1.019649917784385</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.050108352019812</v>
+        <v>1.01711717111382</v>
       </c>
       <c r="D9">
-        <v>1.055523613275838</v>
+        <v>1.035442458645302</v>
       </c>
       <c r="E9">
-        <v>1.057258645614319</v>
+        <v>1.031634426664697</v>
       </c>
       <c r="F9">
-        <v>1.067957811617446</v>
+        <v>1.042227466158284</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.047303855602862</v>
+        <v>1.052443188067586</v>
       </c>
       <c r="J9">
-        <v>1.055820680950554</v>
+        <v>1.042079627720657</v>
       </c>
       <c r="K9">
-        <v>1.058623790765569</v>
+        <v>1.047985536260235</v>
       </c>
       <c r="L9">
-        <v>1.06035339955913</v>
+        <v>1.044234291453523</v>
       </c>
       <c r="M9">
-        <v>1.071019545937278</v>
+        <v>1.054670667435285</v>
       </c>
       <c r="N9">
-        <v>1.022382104219704</v>
+        <v>1.017478834522812</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.048668481993949</v>
+        <v>1.009814683987205</v>
       </c>
       <c r="D10">
-        <v>1.054413964680875</v>
+        <v>1.030035414018616</v>
       </c>
       <c r="E10">
-        <v>1.056007840004582</v>
+        <v>1.025699692414153</v>
       </c>
       <c r="F10">
-        <v>1.066647152768493</v>
+        <v>1.036017068452765</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.046921556581194</v>
+        <v>1.050118758944754</v>
       </c>
       <c r="J10">
-        <v>1.054914259495772</v>
+        <v>1.037644238605712</v>
       </c>
       <c r="K10">
-        <v>1.057795037163016</v>
+        <v>1.043882749729134</v>
       </c>
       <c r="L10">
-        <v>1.05938344367095</v>
+        <v>1.039619933193656</v>
       </c>
       <c r="M10">
-        <v>1.06998671133287</v>
+        <v>1.049765111442389</v>
       </c>
       <c r="N10">
-        <v>1.022074841488828</v>
+        <v>1.015959845192451</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.048045803686148</v>
+        <v>1.006568793742862</v>
       </c>
       <c r="D11">
-        <v>1.053934194947113</v>
+        <v>1.02763814695886</v>
       </c>
       <c r="E11">
-        <v>1.055467371091968</v>
+        <v>1.023070503347058</v>
       </c>
       <c r="F11">
-        <v>1.06608081694957</v>
+        <v>1.033265708170307</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.046755016790428</v>
+        <v>1.049076906092316</v>
       </c>
       <c r="J11">
-        <v>1.054521770931791</v>
+        <v>1.035670833657932</v>
       </c>
       <c r="K11">
-        <v>1.057436062386422</v>
+        <v>1.0420570149017</v>
       </c>
       <c r="L11">
-        <v>1.058963775056008</v>
+        <v>1.037570075178758</v>
       </c>
       <c r="M11">
-        <v>1.069539874573744</v>
+        <v>1.047586414387649</v>
       </c>
       <c r="N11">
-        <v>1.021941700788583</v>
+        <v>1.01528379061097</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.04781463387169</v>
+        <v>1.005349855969921</v>
       </c>
       <c r="D12">
-        <v>1.053756096132556</v>
+        <v>1.026738882288583</v>
       </c>
       <c r="E12">
-        <v>1.055266789458243</v>
+        <v>1.022084532415729</v>
       </c>
       <c r="F12">
-        <v>1.065870634775459</v>
+        <v>1.032233916302151</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.046693006604673</v>
+        <v>1.048684399264602</v>
       </c>
       <c r="J12">
-        <v>1.054375984006474</v>
+        <v>1.034929513457364</v>
       </c>
       <c r="K12">
-        <v>1.057302706417481</v>
+        <v>1.041371131632958</v>
       </c>
       <c r="L12">
-        <v>1.058807942071501</v>
+        <v>1.036800515444146</v>
       </c>
       <c r="M12">
-        <v>1.069373959068503</v>
+        <v>1.04676856801806</v>
       </c>
       <c r="N12">
-        <v>1.021892232749897</v>
+        <v>1.015029799256958</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.047864215103246</v>
+        <v>1.005611933979193</v>
       </c>
       <c r="D13">
-        <v>1.053794293974439</v>
+        <v>1.026932183155143</v>
       </c>
       <c r="E13">
-        <v>1.055309807064248</v>
+        <v>1.022296458168543</v>
       </c>
       <c r="F13">
-        <v>1.065915711385696</v>
+        <v>1.032455691085569</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.046706314773047</v>
+        <v>1.048768846352807</v>
       </c>
       <c r="J13">
-        <v>1.054407255742546</v>
+        <v>1.035088911380027</v>
       </c>
       <c r="K13">
-        <v>1.05733131246557</v>
+        <v>1.041518611017836</v>
       </c>
       <c r="L13">
-        <v>1.058841366464805</v>
+        <v>1.036965963631625</v>
       </c>
       <c r="M13">
-        <v>1.069409545790509</v>
+        <v>1.046944393600237</v>
       </c>
       <c r="N13">
-        <v>1.021902844422718</v>
+        <v>1.015084413388731</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.048026692649276</v>
+        <v>1.006468310691094</v>
       </c>
       <c r="D14">
-        <v>1.053919471010528</v>
+        <v>1.027563995657205</v>
       </c>
       <c r="E14">
-        <v>1.055450787421692</v>
+        <v>1.022989196574675</v>
       </c>
       <c r="F14">
-        <v>1.066063439540546</v>
+        <v>1.033180622939286</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.046749894063316</v>
+        <v>1.049044575110995</v>
       </c>
       <c r="J14">
-        <v>1.054509720116217</v>
+        <v>1.035609727633604</v>
       </c>
       <c r="K14">
-        <v>1.057425039475687</v>
+        <v>1.042000479140005</v>
       </c>
       <c r="L14">
-        <v>1.058950892812968</v>
+        <v>1.037506631618446</v>
       </c>
       <c r="M14">
-        <v>1.069526158723431</v>
+        <v>1.047518988314916</v>
       </c>
       <c r="N14">
-        <v>1.021937612020993</v>
+        <v>1.015262854979322</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.048126816449177</v>
+        <v>1.006994173516698</v>
       </c>
       <c r="D15">
-        <v>1.053996611206965</v>
+        <v>1.027952095933189</v>
       </c>
       <c r="E15">
-        <v>1.055537672989512</v>
+        <v>1.02341475969965</v>
       </c>
       <c r="F15">
-        <v>1.066154483655837</v>
+        <v>1.033625962461108</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.046776724858631</v>
+        <v>1.049213723419267</v>
       </c>
       <c r="J15">
-        <v>1.054572851938441</v>
+        <v>1.035929507152233</v>
       </c>
       <c r="K15">
-        <v>1.05748278559366</v>
+        <v>1.04229634019136</v>
       </c>
       <c r="L15">
-        <v>1.059018382356402</v>
+        <v>1.037838663520474</v>
       </c>
       <c r="M15">
-        <v>1.069598015733253</v>
+        <v>1.047871866075585</v>
       </c>
       <c r="N15">
-        <v>1.021959031690004</v>
+        <v>1.015372414045401</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.048709823953316</v>
+        <v>1.01002827990801</v>
       </c>
       <c r="D16">
-        <v>1.054445820622854</v>
+        <v>1.030193299494792</v>
       </c>
       <c r="E16">
-        <v>1.056043733261761</v>
+        <v>1.025872893774613</v>
       </c>
       <c r="F16">
-        <v>1.066684763785845</v>
+        <v>1.036198317142812</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.046932588224504</v>
+        <v>1.050187141188235</v>
       </c>
       <c r="J16">
-        <v>1.054940307720362</v>
+        <v>1.037774062467312</v>
       </c>
       <c r="K16">
-        <v>1.057818858725484</v>
+        <v>1.044002853247288</v>
       </c>
       <c r="L16">
-        <v>1.059411302725916</v>
+        <v>1.039754853106245</v>
       </c>
       <c r="M16">
-        <v>1.070016374695413</v>
+        <v>1.049908522627167</v>
       </c>
       <c r="N16">
-        <v>1.02208367565882</v>
+        <v>1.016004316453852</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.049075742829234</v>
+        <v>1.011908582303078</v>
       </c>
       <c r="D17">
-        <v>1.054727790450346</v>
+        <v>1.031583883165926</v>
       </c>
       <c r="E17">
-        <v>1.056361477341674</v>
+        <v>1.027398603355561</v>
       </c>
       <c r="F17">
-        <v>1.067017713767773</v>
+        <v>1.037794909408462</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.047030089421687</v>
+        <v>1.050788133709633</v>
       </c>
       <c r="J17">
-        <v>1.055170803252086</v>
+        <v>1.038916699812522</v>
       </c>
       <c r="K17">
-        <v>1.058029637456361</v>
+        <v>1.045059903248988</v>
       </c>
       <c r="L17">
-        <v>1.059657860168731</v>
+        <v>1.04094270495389</v>
       </c>
       <c r="M17">
-        <v>1.070278904903611</v>
+        <v>1.051171192548368</v>
       </c>
       <c r="N17">
-        <v>1.022161836705737</v>
+        <v>1.01639570313767</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.04928925373523</v>
+        <v>1.012997286602089</v>
       </c>
       <c r="D18">
-        <v>1.05489232760549</v>
+        <v>1.032389614193144</v>
       </c>
       <c r="E18">
-        <v>1.056546921798131</v>
+        <v>1.028282823379595</v>
       </c>
       <c r="F18">
-        <v>1.067212032383023</v>
+        <v>1.038720204620607</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.047086863520616</v>
+        <v>1.05113528521989</v>
       </c>
       <c r="J18">
-        <v>1.055305247119108</v>
+        <v>1.039578107524088</v>
       </c>
       <c r="K18">
-        <v>1.058152569566924</v>
+        <v>1.045671738940379</v>
       </c>
       <c r="L18">
-        <v>1.059801704583598</v>
+        <v>1.041630585876131</v>
       </c>
       <c r="M18">
-        <v>1.070432071623879</v>
+        <v>1.051902449602153</v>
       </c>
       <c r="N18">
-        <v>1.022207417630575</v>
+        <v>1.016622233176757</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.049362068395422</v>
+        <v>1.013367161814028</v>
       </c>
       <c r="D19">
-        <v>1.054948442167421</v>
+        <v>1.032663448130062</v>
       </c>
       <c r="E19">
-        <v>1.056610172125973</v>
+        <v>1.028583365778074</v>
       </c>
       <c r="F19">
-        <v>1.067278309383777</v>
+        <v>1.039034707458365</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047106205600526</v>
+        <v>1.05125308466052</v>
       </c>
       <c r="J19">
-        <v>1.055351088922487</v>
+        <v>1.039802780771161</v>
       </c>
       <c r="K19">
-        <v>1.058194484245311</v>
+        <v>1.045879567625848</v>
       </c>
       <c r="L19">
-        <v>1.059850757138962</v>
+        <v>1.041864302770834</v>
       </c>
       <c r="M19">
-        <v>1.070484303801418</v>
+        <v>1.052150912366021</v>
       </c>
       <c r="N19">
-        <v>1.022222957992137</v>
+        <v>1.016699179251282</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.049036475263333</v>
+        <v>1.011707680410013</v>
       </c>
       <c r="D20">
-        <v>1.054697530615994</v>
+        <v>1.031435245272381</v>
       </c>
       <c r="E20">
-        <v>1.056327375049668</v>
+        <v>1.027235501937921</v>
       </c>
       <c r="F20">
-        <v>1.066981979527957</v>
+        <v>1.037624230959995</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.047019638463641</v>
+        <v>1.050724005726948</v>
       </c>
       <c r="J20">
-        <v>1.055146073283493</v>
+        <v>1.038794632991042</v>
       </c>
       <c r="K20">
-        <v>1.058007024080606</v>
+        <v>1.044946982715291</v>
       </c>
       <c r="L20">
-        <v>1.0596314036079</v>
+        <v>1.040815776650486</v>
       </c>
       <c r="M20">
-        <v>1.07025073402982</v>
+        <v>1.051036264399972</v>
       </c>
       <c r="N20">
-        <v>1.0221534517022</v>
+        <v>1.016353893868244</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.047978843721812</v>
+        <v>1.006216501001554</v>
       </c>
       <c r="D21">
-        <v>1.05388260647132</v>
+        <v>1.027378189261121</v>
       </c>
       <c r="E21">
-        <v>1.05540926744333</v>
+        <v>1.022785464855241</v>
       </c>
       <c r="F21">
-        <v>1.066019932294156</v>
+        <v>1.032967423389715</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.04673706518132</v>
+        <v>1.048963533843673</v>
       </c>
       <c r="J21">
-        <v>1.054479546880881</v>
+        <v>1.03545659270195</v>
       </c>
       <c r="K21">
-        <v>1.057397439660733</v>
+        <v>1.041858796983575</v>
       </c>
       <c r="L21">
-        <v>1.058918638625819</v>
+        <v>1.037347646451418</v>
       </c>
       <c r="M21">
-        <v>1.069491817466089</v>
+        <v>1.047350024586804</v>
       </c>
       <c r="N21">
-        <v>1.021927374203143</v>
+        <v>1.015210388749133</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.047314567346249</v>
+        <v>1.002686840190525</v>
       </c>
       <c r="D22">
-        <v>1.05337086287279</v>
+        <v>1.024776150286832</v>
       </c>
       <c r="E22">
-        <v>1.054833016060431</v>
+        <v>1.019933078129495</v>
       </c>
       <c r="F22">
-        <v>1.065416098219452</v>
+        <v>1.029982469340857</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.046558533219699</v>
+        <v>1.04782462911645</v>
       </c>
       <c r="J22">
-        <v>1.054060480477318</v>
+        <v>1.033309556304545</v>
       </c>
       <c r="K22">
-        <v>1.05701407336862</v>
+        <v>1.039872262898168</v>
       </c>
       <c r="L22">
-        <v>1.058470788508363</v>
+        <v>1.035119735925765</v>
       </c>
       <c r="M22">
-        <v>1.069015001782791</v>
+        <v>1.044982482409368</v>
       </c>
       <c r="N22">
-        <v>1.021785151530688</v>
+        <v>1.014474724092819</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.047666646202252</v>
+        <v>1.004565527372807</v>
       </c>
       <c r="D23">
-        <v>1.053642087458144</v>
+        <v>1.026160535206522</v>
       </c>
       <c r="E23">
-        <v>1.055138402568327</v>
+        <v>1.021450502375694</v>
       </c>
       <c r="F23">
-        <v>1.065736102647467</v>
+        <v>1.031570419685583</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.046653258358549</v>
+        <v>1.04843149130906</v>
       </c>
       <c r="J23">
-        <v>1.054282634640241</v>
+        <v>1.034452446693362</v>
       </c>
       <c r="K23">
-        <v>1.057217311852696</v>
+        <v>1.040929731769676</v>
       </c>
       <c r="L23">
-        <v>1.058708174091633</v>
+        <v>1.036305411367672</v>
       </c>
       <c r="M23">
-        <v>1.069267737616938</v>
+        <v>1.046242421934865</v>
       </c>
       <c r="N23">
-        <v>1.021860553775557</v>
+        <v>1.01486633935905</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.04905421834949</v>
+        <v>1.011798484138367</v>
       </c>
       <c r="D24">
-        <v>1.054711203519833</v>
+        <v>1.03150242491344</v>
       </c>
       <c r="E24">
-        <v>1.056342784068709</v>
+        <v>1.027309218032266</v>
       </c>
       <c r="F24">
-        <v>1.066998125939104</v>
+        <v>1.037701371619817</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.047024361100576</v>
+        <v>1.05075299288573</v>
       </c>
       <c r="J24">
-        <v>1.055157247692786</v>
+        <v>1.038849805384765</v>
       </c>
       <c r="K24">
-        <v>1.058017242127562</v>
+        <v>1.044998021217523</v>
       </c>
       <c r="L24">
-        <v>1.059643358091338</v>
+        <v>1.040873145428719</v>
       </c>
       <c r="M24">
-        <v>1.070263463120014</v>
+        <v>1.05109724877839</v>
       </c>
       <c r="N24">
-        <v>1.022157240552512</v>
+        <v>1.016372791105083</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.050667419744727</v>
+        <v>1.019878391495072</v>
       </c>
       <c r="D25">
-        <v>1.055954551417772</v>
+        <v>1.037491850101031</v>
       </c>
       <c r="E25">
-        <v>1.05774469973348</v>
+        <v>1.033885674279717</v>
       </c>
       <c r="F25">
-        <v>1.06846712023704</v>
+        <v>1.044583231658522</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04745120961271</v>
+        <v>1.053314317526197</v>
       </c>
       <c r="J25">
-        <v>1.056172172547296</v>
+        <v>1.043754800558855</v>
       </c>
       <c r="K25">
-        <v>1.058945059252454</v>
+        <v>1.049534753697976</v>
       </c>
       <c r="L25">
-        <v>1.060729823342228</v>
+        <v>1.04597978451776</v>
       </c>
       <c r="M25">
-        <v>1.071420405109629</v>
+        <v>1.056526740875695</v>
       </c>
       <c r="N25">
-        <v>1.02250117075421</v>
+        <v>1.01805230472094</v>
       </c>
     </row>
   </sheetData>
